--- a/Code/Results/Cases/Case_6_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_47/res_line/loading_percent.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.86461102551706</v>
+        <v>28.86461102551714</v>
       </c>
       <c r="C2">
         <v>21.99751665742847</v>
@@ -430,13 +430,13 @@
         <v>2.820601683998754</v>
       </c>
       <c r="E2">
-        <v>8.764276534336265</v>
+        <v>8.764276534336277</v>
       </c>
       <c r="F2">
-        <v>45.61257531884086</v>
+        <v>45.61257531884074</v>
       </c>
       <c r="G2">
-        <v>2.074715168610976</v>
+        <v>2.074715168610971</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.865327834273652</v>
+        <v>6.865327834273621</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.12687096324267</v>
+        <v>13.12687096324258</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.85308874211872</v>
+        <v>26.85308874211867</v>
       </c>
       <c r="C3">
-        <v>20.39444251930758</v>
+        <v>20.39444251930752</v>
       </c>
       <c r="D3">
-        <v>2.762632464160278</v>
+        <v>2.762632464160336</v>
       </c>
       <c r="E3">
-        <v>8.430291007924529</v>
+        <v>8.430291007924561</v>
       </c>
       <c r="F3">
-        <v>43.51908948420516</v>
+        <v>43.51908948420505</v>
       </c>
       <c r="G3">
-        <v>2.089376518187093</v>
+        <v>2.089376518187089</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.724840925024029</v>
+        <v>6.724840925024052</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.38292996361023</v>
+        <v>13.38292996361018</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -521,16 +521,16 @@
         <v>19.40500496920711</v>
       </c>
       <c r="D4">
-        <v>2.727210772888659</v>
+        <v>2.727210772888664</v>
       </c>
       <c r="E4">
-        <v>8.22703833984127</v>
+        <v>8.227038339841297</v>
       </c>
       <c r="F4">
-        <v>42.2475664148604</v>
+        <v>42.24756641486035</v>
       </c>
       <c r="G4">
-        <v>2.098516528588834</v>
+        <v>2.098516528588705</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.643591813585206</v>
+        <v>6.643591813585237</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.12512913934376</v>
+        <v>25.1251291393437</v>
       </c>
       <c r="C5">
-        <v>18.99609524366595</v>
+        <v>18.99609524366596</v>
       </c>
       <c r="D5">
-        <v>2.712830264912717</v>
+        <v>2.712830264912923</v>
       </c>
       <c r="E5">
-        <v>8.144717693288687</v>
+        <v>8.144717693288756</v>
       </c>
       <c r="F5">
-        <v>41.73307980755963</v>
+        <v>41.73307980755948</v>
       </c>
       <c r="G5">
-        <v>2.102281309883847</v>
+        <v>2.102281309884106</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.61112007684602</v>
+        <v>13.611120076846</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.04030550613779</v>
+        <v>25.04030550613781</v>
       </c>
       <c r="C6">
-        <v>18.92765434330053</v>
+        <v>18.9276543433005</v>
       </c>
       <c r="D6">
-        <v>2.710446010246229</v>
+        <v>2.710446010246244</v>
       </c>
       <c r="E6">
-        <v>8.131080740926674</v>
+        <v>8.13108074092664</v>
       </c>
       <c r="F6">
-        <v>41.64787869132076</v>
+        <v>41.6478786913209</v>
       </c>
       <c r="G6">
-        <v>2.102909023676101</v>
+        <v>2.10290902367584</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.606477725861136</v>
+        <v>6.606477725861125</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.62227491299267</v>
+        <v>13.62227491299268</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.6256034811085</v>
+        <v>25.62560348110852</v>
       </c>
       <c r="C7">
-        <v>19.3995265724609</v>
+        <v>19.39952657246089</v>
       </c>
       <c r="D7">
-        <v>2.727016597615759</v>
+        <v>2.727016597615754</v>
       </c>
       <c r="E7">
         <v>8.225926007425278</v>
       </c>
       <c r="F7">
-        <v>42.2406126928645</v>
+        <v>42.24061269286452</v>
       </c>
       <c r="G7">
-        <v>2.098567132331949</v>
+        <v>2.09856713233168</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.54521432176046</v>
+        <v>13.54521432176047</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>21.45316910140033</v>
       </c>
       <c r="D8">
-        <v>2.80058432673345</v>
+        <v>2.800584326733434</v>
       </c>
       <c r="E8">
-        <v>8.648766343471063</v>
+        <v>8.648766343471012</v>
       </c>
       <c r="F8">
-        <v>44.88792721194977</v>
+        <v>44.88792721194973</v>
       </c>
       <c r="G8">
-        <v>2.079745271933322</v>
+        <v>2.079745271933455</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.81582201401631</v>
+        <v>6.815822014016244</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.06644808866444</v>
+        <v>33.0664480886644</v>
       </c>
       <c r="C9">
-        <v>25.23788404614721</v>
+        <v>25.23788404614719</v>
       </c>
       <c r="D9">
-        <v>2.945834411536589</v>
+        <v>2.945834411536554</v>
       </c>
       <c r="E9">
-        <v>9.491156630766261</v>
+        <v>9.491156630766238</v>
       </c>
       <c r="F9">
-        <v>50.18924996019043</v>
+        <v>50.18924996019041</v>
       </c>
       <c r="G9">
-        <v>2.043646907459089</v>
+        <v>2.043646907459221</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.59938828310887</v>
+        <v>12.59938828310893</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.45040191173332</v>
+        <v>36.45040191173338</v>
       </c>
       <c r="C10">
-        <v>27.85028984044466</v>
+        <v>27.85028984044465</v>
       </c>
       <c r="D10">
-        <v>3.052843550485517</v>
+        <v>3.052843550485621</v>
       </c>
       <c r="E10">
-        <v>10.11831285806629</v>
+        <v>10.1183128580663</v>
       </c>
       <c r="F10">
-        <v>54.16469580981229</v>
+        <v>54.16469580981232</v>
       </c>
       <c r="G10">
-        <v>2.01715850485146</v>
+        <v>2.017158504851466</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.505013751578849</v>
+        <v>7.505013751578837</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.17076475598841</v>
+        <v>12.1707647559885</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.94955495209415</v>
+        <v>37.94955495209416</v>
       </c>
       <c r="C11">
-        <v>29.0089082322113</v>
+        <v>29.00890823221125</v>
       </c>
       <c r="D11">
-        <v>3.101596271616952</v>
+        <v>3.101596271616863</v>
       </c>
       <c r="E11">
         <v>10.40608232616117</v>
       </c>
       <c r="F11">
-        <v>55.99830576163554</v>
+        <v>55.99830576163551</v>
       </c>
       <c r="G11">
-        <v>2.004988278922511</v>
+        <v>2.004988278922655</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.652857417261511</v>
+        <v>7.652857417261496</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.98174392544738</v>
+        <v>11.98174392544737</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.51229461016446</v>
+        <v>38.5122946101644</v>
       </c>
       <c r="C12">
-        <v>29.44406716454553</v>
+        <v>29.44406716454552</v>
       </c>
       <c r="D12">
-        <v>3.120075120446526</v>
+        <v>3.120075120446482</v>
       </c>
       <c r="E12">
-        <v>10.51551469496607</v>
+        <v>10.51551469496606</v>
       </c>
       <c r="F12">
-        <v>56.6972734594807</v>
+        <v>56.69727345948069</v>
       </c>
       <c r="G12">
-        <v>2.000349332327461</v>
+        <v>2.000349332327331</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.710024959684753</v>
+        <v>7.710024959684733</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.9111469768278</v>
+        <v>11.91114697682783</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>38.39130397514911</v>
       </c>
       <c r="C13">
-        <v>29.35049467578994</v>
+        <v>29.35049467579</v>
       </c>
       <c r="D13">
-        <v>3.116094431021363</v>
+        <v>3.116094431021269</v>
       </c>
       <c r="E13">
-        <v>10.4919238284165</v>
+        <v>10.49192382841652</v>
       </c>
       <c r="F13">
-        <v>56.54651303338886</v>
+        <v>56.54651303338899</v>
       </c>
       <c r="G13">
-        <v>2.001349996724406</v>
+        <v>2.001349996724279</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.697658144743922</v>
+        <v>7.697658144743942</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.92630520433724</v>
+        <v>11.92630520433718</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.99594587143856</v>
+        <v>37.99594587143851</v>
       </c>
       <c r="C14">
-        <v>29.04477635498409</v>
+        <v>29.04477635498402</v>
       </c>
       <c r="D14">
-        <v>3.103116132145205</v>
+        <v>3.103116132145293</v>
       </c>
       <c r="E14">
-        <v>10.41507539973964</v>
+        <v>10.41507539973963</v>
       </c>
       <c r="F14">
-        <v>56.05571067144899</v>
+        <v>56.05571067144894</v>
       </c>
       <c r="G14">
-        <v>2.00460732175167</v>
+        <v>2.004607321751934</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.65753615596465</v>
+        <v>7.657536155964645</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.97591534096728</v>
+        <v>11.97591534096733</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.75315955433424</v>
+        <v>37.75315955433406</v>
       </c>
       <c r="C15">
-        <v>28.85707135240939</v>
+        <v>28.85707135240921</v>
       </c>
       <c r="D15">
-        <v>3.095169096117238</v>
+        <v>3.095169096117092</v>
       </c>
       <c r="E15">
-        <v>10.36806737179987</v>
+        <v>10.36806737179984</v>
       </c>
       <c r="F15">
-        <v>55.75571738272168</v>
+        <v>55.75571738272163</v>
       </c>
       <c r="G15">
-        <v>2.006598146345622</v>
+        <v>2.006598146345361</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.63311821662138</v>
+        <v>7.633118216621382</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.00643517934287</v>
+        <v>12.00643517934295</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.35168621384906</v>
+        <v>36.35168621384901</v>
       </c>
       <c r="C16">
-        <v>27.77402865657345</v>
+        <v>27.77402865657356</v>
       </c>
       <c r="D16">
-        <v>3.049659364626933</v>
+        <v>3.049659364626784</v>
       </c>
       <c r="E16">
-        <v>10.09956412094325</v>
+        <v>10.09956412094319</v>
       </c>
       <c r="F16">
-        <v>54.04544914820178</v>
+        <v>54.04544914820188</v>
       </c>
       <c r="G16">
-        <v>2.017950375118249</v>
+        <v>2.017950375117995</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.495510283216104</v>
+        <v>7.495510283216087</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.18324730592855</v>
+        <v>12.18324730592857</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.4821622569111</v>
+        <v>35.48216225691117</v>
       </c>
       <c r="C17">
-        <v>27.10244381374891</v>
+        <v>27.10244381374896</v>
       </c>
       <c r="D17">
-        <v>3.02176243722555</v>
+        <v>3.02176243722554</v>
       </c>
       <c r="E17">
-        <v>9.935539862063536</v>
+        <v>9.93553986206356</v>
       </c>
       <c r="F17">
-        <v>53.00330540160728</v>
+        <v>53.00330540160731</v>
       </c>
       <c r="G17">
-        <v>2.024875214386009</v>
+        <v>2.024875214386543</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.413064864348865</v>
+        <v>7.413064864348846</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.29331806078503</v>
+        <v>12.29331806078495</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.97819038155179</v>
+        <v>34.97819038155178</v>
       </c>
       <c r="C18">
-        <v>26.71331395395861</v>
+        <v>26.71331395395869</v>
       </c>
       <c r="D18">
-        <v>3.005723088730333</v>
+        <v>3.005723088730321</v>
       </c>
       <c r="E18">
-        <v>9.841421421076351</v>
+        <v>9.841421421076349</v>
       </c>
       <c r="F18">
-        <v>52.40618113799999</v>
+        <v>52.40618113799997</v>
       </c>
       <c r="G18">
-        <v>2.028847762091697</v>
+        <v>2.028847762091827</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.366333598146059</v>
+        <v>7.366333598146067</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.80687131056969</v>
+        <v>34.80687131056977</v>
       </c>
       <c r="C19">
-        <v>26.58105239624363</v>
+        <v>26.58105239624376</v>
       </c>
       <c r="D19">
-        <v>3.000293401138965</v>
+        <v>3.000293401138941</v>
       </c>
       <c r="E19">
-        <v>9.809590544155817</v>
+        <v>9.809590544155769</v>
       </c>
       <c r="F19">
-        <v>52.20437330657802</v>
+        <v>52.20437330657808</v>
       </c>
       <c r="G19">
-        <v>2.030191363853413</v>
+        <v>2.030191363853411</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.35062645470593</v>
+        <v>7.350626454705922</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.37889346828717</v>
+        <v>12.37889346828713</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.57511701849</v>
+        <v>35.57511701849002</v>
       </c>
       <c r="C20">
-        <v>27.17422572880211</v>
+        <v>27.17422572880193</v>
       </c>
       <c r="D20">
-        <v>3.024731438800133</v>
+        <v>3.024731438800258</v>
       </c>
       <c r="E20">
-        <v>9.952976730679017</v>
+        <v>9.952976730679023</v>
       </c>
       <c r="F20">
-        <v>53.11400029296887</v>
+        <v>53.11400029296897</v>
       </c>
       <c r="G20">
-        <v>2.024139220142639</v>
+        <v>2.024139220142377</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.421769240010991</v>
+        <v>7.421769240010996</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.28154298957599</v>
+        <v>12.281542989576</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.11219920660546</v>
+        <v>38.11219920660555</v>
       </c>
       <c r="C21">
-        <v>29.13466425147667</v>
+        <v>29.13466425147661</v>
       </c>
       <c r="D21">
-        <v>3.106927621734635</v>
+        <v>3.10692762173468</v>
       </c>
       <c r="E21">
-        <v>10.43763408436046</v>
+        <v>10.43763408436049</v>
       </c>
       <c r="F21">
-        <v>56.19973610456606</v>
+        <v>56.19973610456617</v>
       </c>
       <c r="G21">
-        <v>2.003651506329821</v>
+        <v>2.003651506329956</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.669287791661321</v>
+        <v>7.669287791661349</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.96131580587868</v>
+        <v>11.96131580587864</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.74195259409913</v>
+        <v>39.74195259409899</v>
       </c>
       <c r="C22">
-        <v>30.39546391954281</v>
+        <v>30.39546391954278</v>
       </c>
       <c r="D22">
         <v>3.160755882473512</v>
       </c>
       <c r="E22">
-        <v>10.75715311647693</v>
+        <v>10.75715311647692</v>
       </c>
       <c r="F22">
         <v>58.24410310642774</v>
       </c>
       <c r="G22">
-        <v>1.990076725029417</v>
+        <v>1.990076725029027</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.838024243207226</v>
+        <v>7.838024243207251</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.7578399173862</v>
+        <v>11.75783991738629</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.8743982800805</v>
+        <v>38.87439828008041</v>
       </c>
       <c r="C23">
-        <v>29.72415380740737</v>
+        <v>29.72415380740731</v>
       </c>
       <c r="D23">
-        <v>3.132012961773325</v>
+        <v>3.132012961773182</v>
       </c>
       <c r="E23">
-        <v>10.58631920977527</v>
+        <v>10.58631920977529</v>
       </c>
       <c r="F23">
-        <v>57.15002776847609</v>
+        <v>57.15002776847599</v>
       </c>
       <c r="G23">
         <v>1.997343751546463</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.747282119642006</v>
+        <v>7.747282119642048</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.86585391742304</v>
+        <v>11.86585391742305</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.53310491079248</v>
+        <v>35.53310491079246</v>
       </c>
       <c r="C24">
-        <v>27.14178260307076</v>
+        <v>27.14178260307071</v>
       </c>
       <c r="D24">
-        <v>3.023389156782474</v>
+        <v>3.023389156782486</v>
       </c>
       <c r="E24">
-        <v>9.9450929648384</v>
+        <v>9.94509296483845</v>
       </c>
       <c r="F24">
         <v>53.06394891745833</v>
       </c>
       <c r="G24">
-        <v>2.024471989094658</v>
+        <v>2.024471989094655</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.417831920366925</v>
+        <v>7.41783192036695</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.28686470083882</v>
+        <v>12.28686470083893</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.77996403096954</v>
+        <v>31.77996403096966</v>
       </c>
       <c r="C25">
-        <v>24.24550319749287</v>
+        <v>24.24550319749286</v>
       </c>
       <c r="D25">
-        <v>2.906477827921251</v>
+        <v>2.906477827921229</v>
       </c>
       <c r="E25">
-        <v>9.261931966384145</v>
+        <v>9.261931966384161</v>
       </c>
       <c r="F25">
         <v>48.74267553387129</v>
       </c>
       <c r="G25">
-        <v>2.053369004014087</v>
+        <v>2.053369004013559</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.088558200846635</v>
+        <v>7.088558200846664</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.76190586329632</v>
+        <v>12.76190586329625</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.86461102551714</v>
+        <v>22.15383867593415</v>
       </c>
       <c r="C2">
-        <v>21.99751665742847</v>
+        <v>18.4991374061534</v>
       </c>
       <c r="D2">
-        <v>2.820601683998754</v>
+        <v>6.255284846857702</v>
       </c>
       <c r="E2">
-        <v>8.764276534336277</v>
+        <v>10.47664000593</v>
       </c>
       <c r="F2">
-        <v>45.61257531884074</v>
+        <v>28.71869765492503</v>
       </c>
       <c r="G2">
-        <v>2.074715168610971</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>35.98697124782358</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.117506351291782</v>
       </c>
       <c r="J2">
-        <v>6.865327834273621</v>
+        <v>11.26538022199098</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.53003723748339</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.484643601370231</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.12687096324258</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>11.84472125590402</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.85308874211867</v>
+        <v>20.64805949109231</v>
       </c>
       <c r="C3">
-        <v>20.39444251930752</v>
+        <v>17.22180699816929</v>
       </c>
       <c r="D3">
-        <v>2.762632464160336</v>
+        <v>6.007193745043415</v>
       </c>
       <c r="E3">
-        <v>8.430291007924561</v>
+        <v>10.04532471705943</v>
       </c>
       <c r="F3">
-        <v>43.51908948420505</v>
+        <v>27.69109228780069</v>
       </c>
       <c r="G3">
-        <v>2.089376518187089</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>34.4316880763011</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.879822807974636</v>
       </c>
       <c r="J3">
-        <v>6.724840925024052</v>
+        <v>11.08979205672451</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.44215240197231</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.359822159191637</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.38292996361018</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.00665920203578</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.63240508187923</v>
+        <v>19.66598161311516</v>
       </c>
       <c r="C4">
-        <v>19.40500496920711</v>
+        <v>16.39717755587192</v>
       </c>
       <c r="D4">
-        <v>2.727210772888664</v>
+        <v>5.853673273408951</v>
       </c>
       <c r="E4">
-        <v>8.227038339841297</v>
+        <v>9.778389681249351</v>
       </c>
       <c r="F4">
-        <v>42.24756641486035</v>
+        <v>27.06143202101175</v>
       </c>
       <c r="G4">
-        <v>2.098516528588705</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>33.46844638502506</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.730068563989646</v>
       </c>
       <c r="J4">
-        <v>6.643591813585237</v>
+        <v>10.98748781599927</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.3968736876388</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.285893350015112</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.54431758275648</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.10861098386578</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.1251291393437</v>
+        <v>19.24451352102266</v>
       </c>
       <c r="C5">
-        <v>18.99609524366596</v>
+        <v>16.05892685436831</v>
       </c>
       <c r="D5">
-        <v>2.712830264912923</v>
+        <v>5.79334587001388</v>
       </c>
       <c r="E5">
-        <v>8.144717693288756</v>
+        <v>9.670376816465243</v>
       </c>
       <c r="F5">
-        <v>41.73307980755948</v>
+        <v>26.79470345502529</v>
       </c>
       <c r="G5">
-        <v>2.102281309884106</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>33.05464377707496</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.668488776021888</v>
       </c>
       <c r="J5">
-        <v>6.61170076140222</v>
+        <v>10.94344293945347</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.37261700699225</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.256244665128034</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.611120076846</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.15125141629935</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.04030550613781</v>
+        <v>19.16545783008245</v>
       </c>
       <c r="C6">
-        <v>18.9276543433005</v>
+        <v>16.01194689462686</v>
       </c>
       <c r="D6">
-        <v>2.710446010246244</v>
+        <v>5.786307368436015</v>
       </c>
       <c r="E6">
-        <v>8.13108074092664</v>
+        <v>9.653821506288955</v>
       </c>
       <c r="F6">
-        <v>41.6478786913209</v>
+        <v>26.73727903353266</v>
       </c>
       <c r="G6">
-        <v>2.10290902367584</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>32.96175528689321</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.658937812763894</v>
       </c>
       <c r="J6">
-        <v>6.606477725861125</v>
+        <v>10.93165074402316</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.35906111726168</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.251096332851656</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.62227491299268</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.1589340117181</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.62560348110852</v>
+        <v>19.63853477823895</v>
       </c>
       <c r="C7">
-        <v>19.39952657246089</v>
+        <v>16.41874142621428</v>
       </c>
       <c r="D7">
-        <v>2.727016597615754</v>
+        <v>5.860906350430403</v>
       </c>
       <c r="E7">
-        <v>8.225926007425278</v>
+        <v>9.780693147695565</v>
       </c>
       <c r="F7">
-        <v>42.24061269286452</v>
+        <v>27.02222861075437</v>
       </c>
       <c r="G7">
-        <v>2.09856713233168</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>33.39796971587648</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.730811737394438</v>
       </c>
       <c r="J7">
-        <v>6.643156837916752</v>
+        <v>10.97448497494081</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.3702042179389</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.28476129384735</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.54521432176047</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.11080767505947</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.1585584109561</v>
+        <v>21.61988940137258</v>
       </c>
       <c r="C8">
-        <v>21.45316910140033</v>
+        <v>18.09866196693438</v>
       </c>
       <c r="D8">
-        <v>2.800584326733434</v>
+        <v>6.180164410568525</v>
       </c>
       <c r="E8">
-        <v>8.648766343471012</v>
+        <v>10.33314797201212</v>
       </c>
       <c r="F8">
-        <v>44.88792721194973</v>
+        <v>28.31907596543789</v>
       </c>
       <c r="G8">
-        <v>2.079745271933455</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>35.37107190323596</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.037616387156815</v>
       </c>
       <c r="J8">
-        <v>6.815822014016244</v>
+        <v>11.18755632999622</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.46322920528871</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.440095185204115</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.21428593467397</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>11.9025805676366</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.0664480886644</v>
+        <v>25.08815392192312</v>
       </c>
       <c r="C9">
-        <v>25.23788404614719</v>
+        <v>21.03586854097672</v>
       </c>
       <c r="D9">
-        <v>2.945834411536554</v>
+        <v>6.779872089518999</v>
       </c>
       <c r="E9">
-        <v>9.491156630766238</v>
+        <v>11.38784188301458</v>
       </c>
       <c r="F9">
-        <v>50.18924996019041</v>
+        <v>30.92050872385155</v>
       </c>
       <c r="G9">
-        <v>2.043646907459221</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>39.26401724196147</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.609363607155833</v>
       </c>
       <c r="J9">
-        <v>7.196307068054894</v>
+        <v>11.6712510060052</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.76565752219753</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.766860459476636</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.59938828310893</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>11.51035808973771</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.45040191173338</v>
+        <v>27.35859077310809</v>
       </c>
       <c r="C10">
-        <v>27.85028984044465</v>
+        <v>23.01734350794188</v>
       </c>
       <c r="D10">
-        <v>3.052843550485621</v>
+        <v>7.212084804407359</v>
       </c>
       <c r="E10">
-        <v>10.1183128580663</v>
+        <v>12.1442991804399</v>
       </c>
       <c r="F10">
-        <v>54.16469580981232</v>
+        <v>32.80143471374789</v>
       </c>
       <c r="G10">
-        <v>2.017158504851466</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>42.02530420153077</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.014607835481764</v>
       </c>
       <c r="J10">
-        <v>7.505013751578837</v>
+        <v>12.04833576712743</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.02558639770972</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.018479380893596</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.1707647559885</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.23514755467437</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.94955495209416</v>
+        <v>28.30886929827659</v>
       </c>
       <c r="C11">
-        <v>29.00890823221125</v>
+        <v>23.90925880694913</v>
       </c>
       <c r="D11">
-        <v>3.101596271616863</v>
+        <v>7.415868690545315</v>
       </c>
       <c r="E11">
-        <v>10.40608232616117</v>
+        <v>12.48782612007212</v>
       </c>
       <c r="F11">
-        <v>55.99830576163551</v>
+        <v>33.60456157757471</v>
       </c>
       <c r="G11">
-        <v>2.004988278922655</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>43.18052274425159</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.197728908296184</v>
       </c>
       <c r="J11">
-        <v>7.652857417261496</v>
+        <v>12.207694870343</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.1150177484695</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.134260314617976</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.98174392544737</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.11718531096226</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.5122946101644</v>
+        <v>28.67487502598502</v>
       </c>
       <c r="C12">
-        <v>29.44406716454552</v>
+        <v>24.22499310535921</v>
       </c>
       <c r="D12">
-        <v>3.120075120446482</v>
+        <v>7.486837803382921</v>
       </c>
       <c r="E12">
-        <v>10.51551469496606</v>
+        <v>12.61450295844289</v>
       </c>
       <c r="F12">
-        <v>56.69727345948069</v>
+        <v>33.93375695676133</v>
       </c>
       <c r="G12">
-        <v>2.000349332327331</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>43.66096461963608</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.265863022126412</v>
       </c>
       <c r="J12">
-        <v>7.710024959684733</v>
+        <v>12.27882820554566</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.17276076208471</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.179047520527106</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.91114697682783</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.07049017689259</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.39130397514911</v>
+        <v>28.59918360732516</v>
       </c>
       <c r="C13">
-        <v>29.35049467579</v>
+        <v>24.15402357494409</v>
       </c>
       <c r="D13">
-        <v>3.116094431021269</v>
+        <v>7.470457818151925</v>
       </c>
       <c r="E13">
-        <v>10.49192382841652</v>
+        <v>12.58675093711963</v>
       </c>
       <c r="F13">
-        <v>56.54651303338899</v>
+        <v>33.86799736506615</v>
       </c>
       <c r="G13">
-        <v>2.001349996724279</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>43.56656694544702</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.250992834557552</v>
       </c>
       <c r="J13">
-        <v>7.697658144743942</v>
+        <v>12.26543261386958</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.16463495973034</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.169507055151516</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.92630520433718</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.08002850139591</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.99594587143851</v>
+        <v>28.34033087240115</v>
       </c>
       <c r="C14">
-        <v>29.04477635498402</v>
+        <v>23.93396688514838</v>
       </c>
       <c r="D14">
-        <v>3.103116132145293</v>
+        <v>7.421239329217864</v>
       </c>
       <c r="E14">
-        <v>10.41507539973963</v>
+        <v>12.49804750681722</v>
       </c>
       <c r="F14">
-        <v>56.05571067144894</v>
+        <v>33.63384185389005</v>
       </c>
       <c r="G14">
-        <v>2.004607321751934</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>43.22393359488365</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.203244672862997</v>
       </c>
       <c r="J14">
-        <v>7.657536155964645</v>
+        <v>12.21436651490896</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.12160115635288</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.137989418667262</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.97591534096733</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>11.11312517653333</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.75315955433406</v>
+        <v>28.17517583402899</v>
       </c>
       <c r="C15">
-        <v>28.85707135240921</v>
+        <v>23.8049020221051</v>
       </c>
       <c r="D15">
-        <v>3.095169096117092</v>
+        <v>7.39325682331053</v>
       </c>
       <c r="E15">
-        <v>10.36806737179984</v>
+        <v>12.44461997835304</v>
       </c>
       <c r="F15">
-        <v>55.75571738272163</v>
+        <v>33.48013696241485</v>
       </c>
       <c r="G15">
-        <v>2.006598146345361</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>42.99583121068927</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.174456886103328</v>
       </c>
       <c r="J15">
-        <v>7.633118216621382</v>
+        <v>12.17930837184255</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.08679909363812</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.118490154337002</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.00643517934295</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.13441552131476</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.35168621384901</v>
+        <v>27.24750024132581</v>
       </c>
       <c r="C16">
-        <v>27.77402865657356</v>
+        <v>23.01391220816903</v>
       </c>
       <c r="D16">
-        <v>3.049659364626784</v>
+        <v>7.217853344204572</v>
       </c>
       <c r="E16">
-        <v>10.09956412094319</v>
+        <v>12.13046188087793</v>
       </c>
       <c r="F16">
-        <v>54.04544914820188</v>
+        <v>32.66172626833047</v>
       </c>
       <c r="G16">
-        <v>2.017950375117995</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>41.7958307678232</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.006006074372859</v>
       </c>
       <c r="J16">
-        <v>7.495510283216087</v>
+        <v>12.00489749491272</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.946359095089</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.008944126877721</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.18324730592857</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.25079120214204</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.48216225691117</v>
+        <v>26.66385167701415</v>
       </c>
       <c r="C17">
-        <v>27.10244381374896</v>
+        <v>22.51884451264133</v>
       </c>
       <c r="D17">
-        <v>3.02176243722554</v>
+        <v>7.109400126660153</v>
       </c>
       <c r="E17">
-        <v>9.93553986206356</v>
+        <v>11.93634381041275</v>
       </c>
       <c r="F17">
-        <v>53.00330540160731</v>
+        <v>32.15826288136191</v>
       </c>
       <c r="G17">
-        <v>2.024875214386543</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>41.05491704162164</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.902185012762702</v>
       </c>
       <c r="J17">
-        <v>7.413064864348846</v>
+        <v>11.89955425467386</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.86365679328962</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.942364169633029</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.29331806078495</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11.32273166954766</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.97819038155178</v>
+        <v>26.33769758866499</v>
       </c>
       <c r="C18">
-        <v>26.71331395395869</v>
+        <v>22.21301483895313</v>
       </c>
       <c r="D18">
-        <v>3.005723088730321</v>
+        <v>7.040773960931027</v>
       </c>
       <c r="E18">
-        <v>9.841421421076349</v>
+        <v>11.82148052281329</v>
       </c>
       <c r="F18">
-        <v>52.40618113799997</v>
+        <v>31.89519353751825</v>
       </c>
       <c r="G18">
-        <v>2.028847762091827</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>40.67480531869396</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.840443216532914</v>
       </c>
       <c r="J18">
-        <v>7.366333598146067</v>
+        <v>11.84973154518852</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.83975796989043</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.904917320648969</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.35717945703722</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>11.36200144373666</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.80687131056977</v>
+        <v>26.21484842050302</v>
       </c>
       <c r="C19">
-        <v>26.58105239624376</v>
+        <v>22.12224770876237</v>
       </c>
       <c r="D19">
-        <v>3.000293401138941</v>
+        <v>7.022067103330443</v>
       </c>
       <c r="E19">
-        <v>9.809590544155769</v>
+        <v>11.78459954233548</v>
       </c>
       <c r="F19">
-        <v>52.20437330657808</v>
+        <v>31.7852739736416</v>
       </c>
       <c r="G19">
-        <v>2.030191363853411</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>40.50907081457723</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.820849859472375</v>
       </c>
       <c r="J19">
-        <v>7.350626454705922</v>
+        <v>11.82513447821858</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.81458126757787</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.891804088436597</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.37889346828713</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>11.37711954904233</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.57511701849002</v>
+        <v>26.72769638148455</v>
       </c>
       <c r="C20">
-        <v>27.17422572880193</v>
+        <v>22.57057209729606</v>
       </c>
       <c r="D20">
-        <v>3.024731438800258</v>
+        <v>7.120514145291533</v>
       </c>
       <c r="E20">
-        <v>9.952976730679023</v>
+        <v>11.95684848033488</v>
       </c>
       <c r="F20">
-        <v>53.11400029296897</v>
+        <v>32.21400565022385</v>
       </c>
       <c r="G20">
-        <v>2.024139220142377</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>41.13767394680995</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.913110052741645</v>
       </c>
       <c r="J20">
-        <v>7.421769240010996</v>
+        <v>11.91149932283173</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.87408758522773</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.949475932183876</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.281542989576</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.31486751555311</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.11219920660555</v>
+        <v>28.40094501567236</v>
       </c>
       <c r="C21">
-        <v>29.13466425147661</v>
+        <v>24.01684865494676</v>
       </c>
       <c r="D21">
-        <v>3.10692762173468</v>
+        <v>7.442002885062658</v>
       </c>
       <c r="E21">
-        <v>10.43763408436049</v>
+        <v>12.52697820181735</v>
       </c>
       <c r="F21">
-        <v>56.19973610456617</v>
+        <v>33.67396066467563</v>
       </c>
       <c r="G21">
-        <v>2.003651506329956</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>43.27426463348711</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.218692997660686</v>
       </c>
       <c r="J21">
-        <v>7.669287791661349</v>
+        <v>12.21830505584672</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.10951909920153</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.146562229345108</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.96131580587864</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.10620811609586</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.74195259409899</v>
+        <v>29.46722374272974</v>
       </c>
       <c r="C22">
-        <v>30.39546391954278</v>
+        <v>24.90746342721872</v>
       </c>
       <c r="D22">
-        <v>3.160755882473512</v>
+        <v>7.641213332367072</v>
       </c>
       <c r="E22">
-        <v>10.75715311647692</v>
+        <v>12.89122645394618</v>
       </c>
       <c r="F22">
-        <v>58.24410310642774</v>
+        <v>34.65952056650752</v>
       </c>
       <c r="G22">
-        <v>1.990076725029027</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>44.71858932793047</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.41508137754303</v>
       </c>
       <c r="J22">
-        <v>7.838024243207251</v>
+        <v>12.43826888807739</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.30637821618656</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.278230817339796</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.75783991738629</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>10.9680174427489</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.87439828008041</v>
+        <v>28.9210711490765</v>
       </c>
       <c r="C23">
-        <v>29.72415380740731</v>
+        <v>24.41340185821099</v>
       </c>
       <c r="D23">
-        <v>3.132012961773182</v>
+        <v>7.527645865561825</v>
       </c>
       <c r="E23">
-        <v>10.58631920977529</v>
+        <v>12.69386106633574</v>
       </c>
       <c r="F23">
-        <v>57.15002776847599</v>
+        <v>34.16830675210984</v>
       </c>
       <c r="G23">
-        <v>1.997343751546463</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>44.00942017291649</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.309014314262409</v>
       </c>
       <c r="J23">
-        <v>7.747282119642048</v>
+        <v>12.33361125775334</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.22987336563201</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.208587804557022</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.86585391742305</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.03819046440541</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.53310491079246</v>
+        <v>26.73008804581834</v>
       </c>
       <c r="C24">
-        <v>27.14178260307071</v>
+        <v>22.51078471353244</v>
       </c>
       <c r="D24">
-        <v>3.023389156782486</v>
+        <v>7.103023361417904</v>
       </c>
       <c r="E24">
-        <v>9.94509296483845</v>
+        <v>11.94188874223181</v>
       </c>
       <c r="F24">
-        <v>53.06394891745833</v>
+        <v>32.24541494181174</v>
       </c>
       <c r="G24">
-        <v>2.024471989094655</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>41.20030327740088</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.905129970865661</v>
       </c>
       <c r="J24">
-        <v>7.41783192036695</v>
+        <v>11.92750631675681</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.91674308710405</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.947559142178686</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.28686470083893</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.31347495520055</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.77996403096966</v>
+        <v>24.16477157865823</v>
       </c>
       <c r="C25">
-        <v>24.24550319749286</v>
+        <v>20.31313461605171</v>
       </c>
       <c r="D25">
-        <v>2.906477827921229</v>
+        <v>6.632344637276595</v>
       </c>
       <c r="E25">
-        <v>9.261931966384161</v>
+        <v>11.11157676136332</v>
       </c>
       <c r="F25">
-        <v>48.74267553387129</v>
+        <v>30.16039949279706</v>
       </c>
       <c r="G25">
-        <v>2.053369004013559</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>38.11859531359178</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.459625104667995</v>
       </c>
       <c r="J25">
-        <v>7.088558200846664</v>
+        <v>11.51419223642182</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.62866071326668</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.675031564674421</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.76190586329625</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.61858591129839</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.15383867593415</v>
+        <v>21.60196994766727</v>
       </c>
       <c r="C2">
-        <v>18.4991374061534</v>
+        <v>19.09151141546918</v>
       </c>
       <c r="D2">
-        <v>6.255284846857702</v>
+        <v>6.469911455112602</v>
       </c>
       <c r="E2">
-        <v>10.47664000593</v>
+        <v>10.57587905040443</v>
       </c>
       <c r="F2">
-        <v>28.71869765492503</v>
+        <v>27.76377218429112</v>
       </c>
       <c r="G2">
-        <v>35.98697124782358</v>
+        <v>33.76475859837977</v>
       </c>
       <c r="I2">
-        <v>3.117506351291782</v>
+        <v>3.105596832011279</v>
       </c>
       <c r="J2">
-        <v>11.26538022199098</v>
+        <v>11.41143739452938</v>
       </c>
       <c r="K2">
-        <v>15.53003723748339</v>
+        <v>14.73832120974224</v>
       </c>
       <c r="L2">
-        <v>6.484643601370231</v>
+        <v>12.99613882120501</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.983422516423213</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.464542040717647</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.84472125590402</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.89075092805566</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.64805949109231</v>
+        <v>20.17849646098001</v>
       </c>
       <c r="C3">
-        <v>17.22180699816929</v>
+        <v>17.73768631901889</v>
       </c>
       <c r="D3">
-        <v>6.007193745043415</v>
+        <v>6.198784451806051</v>
       </c>
       <c r="E3">
-        <v>10.04532471705943</v>
+        <v>10.13436886252916</v>
       </c>
       <c r="F3">
-        <v>27.69109228780069</v>
+        <v>26.84482819986214</v>
       </c>
       <c r="G3">
-        <v>34.4316880763011</v>
+        <v>32.40564305665145</v>
       </c>
       <c r="I3">
-        <v>2.879822807974636</v>
+        <v>2.901082215626849</v>
       </c>
       <c r="J3">
-        <v>11.08979205672451</v>
+        <v>11.23403857833115</v>
       </c>
       <c r="K3">
-        <v>15.44215240197231</v>
+        <v>14.72332680276281</v>
       </c>
       <c r="L3">
-        <v>6.359822159191637</v>
+        <v>13.09759031420583</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.820177625751183</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.34134907302165</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.00665920203578</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.01408710031996</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.66598161311516</v>
+        <v>19.24909091808202</v>
       </c>
       <c r="C4">
-        <v>16.39717755587192</v>
+        <v>16.86257980785883</v>
       </c>
       <c r="D4">
-        <v>5.853673273408951</v>
+        <v>6.030939504164352</v>
       </c>
       <c r="E4">
-        <v>9.778389681249351</v>
+        <v>9.860845673181837</v>
       </c>
       <c r="F4">
-        <v>27.06143202101175</v>
+        <v>26.28038772218568</v>
       </c>
       <c r="G4">
-        <v>33.46844638502506</v>
+        <v>31.56812589737908</v>
       </c>
       <c r="I4">
-        <v>2.730068563989646</v>
+        <v>2.772251357586906</v>
       </c>
       <c r="J4">
-        <v>10.98748781599927</v>
+        <v>11.1259411075996</v>
       </c>
       <c r="K4">
-        <v>15.3968736876388</v>
+        <v>14.72007071794541</v>
       </c>
       <c r="L4">
-        <v>6.285893350015112</v>
+        <v>13.15883827507901</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.748266414308613</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.268205521126169</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.10861098386578</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.09298871484242</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.24451352102266</v>
+        <v>18.84983165363619</v>
       </c>
       <c r="C5">
-        <v>16.05892685436831</v>
+        <v>16.50278017416871</v>
       </c>
       <c r="D5">
-        <v>5.79334587001388</v>
+        <v>5.96470856031423</v>
       </c>
       <c r="E5">
-        <v>9.670376816465243</v>
+        <v>9.750053930109738</v>
       </c>
       <c r="F5">
-        <v>26.79470345502529</v>
+        <v>26.04011806429895</v>
       </c>
       <c r="G5">
-        <v>33.05464377707496</v>
+        <v>31.2072183908585</v>
       </c>
       <c r="I5">
-        <v>2.668488776021888</v>
+        <v>2.719633917849388</v>
       </c>
       <c r="J5">
-        <v>10.94344293945347</v>
+        <v>11.07853057392674</v>
       </c>
       <c r="K5">
-        <v>15.37261700699225</v>
+        <v>14.71277025689902</v>
       </c>
       <c r="L5">
-        <v>6.256244665128034</v>
+        <v>13.17735448283318</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.721087408537272</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.238829651788542</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.15125141629935</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.1265903648259</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.16545783008245</v>
+        <v>18.77473341610686</v>
       </c>
       <c r="C6">
-        <v>16.01194689462686</v>
+        <v>16.4520429600629</v>
       </c>
       <c r="D6">
-        <v>5.786307368436015</v>
+        <v>5.956638338570306</v>
       </c>
       <c r="E6">
-        <v>9.653821506288955</v>
+        <v>9.733002806657174</v>
       </c>
       <c r="F6">
-        <v>26.73727903353266</v>
+        <v>25.98745286703506</v>
       </c>
       <c r="G6">
-        <v>32.96175528689321</v>
+        <v>31.12373670068357</v>
       </c>
       <c r="I6">
-        <v>2.658937812763894</v>
+        <v>2.711971805531016</v>
       </c>
       <c r="J6">
-        <v>10.93165074402316</v>
+        <v>11.06628845257524</v>
       </c>
       <c r="K6">
-        <v>15.35906111726168</v>
+        <v>14.70261543818186</v>
       </c>
       <c r="L6">
-        <v>6.251096332851656</v>
+        <v>13.17287313799294</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.710816904917852</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.233728714635289</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.1589340117181</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.13303312443272</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.63853477823895</v>
+        <v>19.21327383326959</v>
       </c>
       <c r="C7">
-        <v>16.41874142621428</v>
+        <v>16.86693660903924</v>
       </c>
       <c r="D7">
-        <v>5.860906350430403</v>
+        <v>6.043403780657602</v>
       </c>
       <c r="E7">
-        <v>9.780693147695565</v>
+        <v>9.865560848984273</v>
       </c>
       <c r="F7">
-        <v>27.02222861075437</v>
+        <v>26.21888641125317</v>
       </c>
       <c r="G7">
-        <v>33.39796971587648</v>
+        <v>31.58539999466764</v>
       </c>
       <c r="I7">
-        <v>2.730811737394438</v>
+        <v>2.773298742505823</v>
       </c>
       <c r="J7">
-        <v>10.97448497494081</v>
+        <v>11.05675532974642</v>
       </c>
       <c r="K7">
-        <v>15.3702042179389</v>
+        <v>14.68498064272818</v>
       </c>
       <c r="L7">
-        <v>6.28476129384735</v>
+        <v>13.1302755264355</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.723214940953</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.26660970073085</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.11080767505947</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.09691498364654</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.61988940137258</v>
+        <v>21.06829057494315</v>
       </c>
       <c r="C8">
-        <v>18.09866196693438</v>
+        <v>18.61437835741964</v>
       </c>
       <c r="D8">
-        <v>6.180164410568525</v>
+        <v>6.403948769882646</v>
       </c>
       <c r="E8">
-        <v>10.33314797201212</v>
+        <v>10.43679857547382</v>
       </c>
       <c r="F8">
-        <v>28.31907596543789</v>
+        <v>27.32752680918436</v>
       </c>
       <c r="G8">
-        <v>35.37107190323596</v>
+        <v>33.48835805292683</v>
       </c>
       <c r="I8">
-        <v>3.037616387156815</v>
+        <v>3.035702689446823</v>
       </c>
       <c r="J8">
-        <v>11.18755632999622</v>
+        <v>11.15063056751052</v>
       </c>
       <c r="K8">
-        <v>15.46322920528871</v>
+        <v>14.66545555423172</v>
       </c>
       <c r="L8">
-        <v>6.440095185204115</v>
+        <v>12.97971648381406</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.870412244393421</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.419026963463849</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.9025805676366</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.94052329044683</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.08815392192312</v>
+        <v>24.33808387477354</v>
       </c>
       <c r="C9">
-        <v>21.03586854097672</v>
+        <v>21.71709290083873</v>
       </c>
       <c r="D9">
-        <v>6.779872089518999</v>
+        <v>7.062420579409934</v>
       </c>
       <c r="E9">
-        <v>11.38784188301458</v>
+        <v>11.51590886573186</v>
       </c>
       <c r="F9">
-        <v>30.92050872385155</v>
+        <v>29.63649374414351</v>
       </c>
       <c r="G9">
-        <v>39.26401724196147</v>
+        <v>36.96829080956299</v>
       </c>
       <c r="I9">
-        <v>3.609363607155833</v>
+        <v>3.525813102877955</v>
       </c>
       <c r="J9">
-        <v>11.6712510060052</v>
+        <v>11.56797436571378</v>
       </c>
       <c r="K9">
-        <v>15.76565752219753</v>
+        <v>14.75979202697446</v>
       </c>
       <c r="L9">
-        <v>6.766860459476636</v>
+        <v>12.74068911444055</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.439767330400862</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.739996997482761</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.51035808973771</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.65033730466983</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.35859077310809</v>
+        <v>26.43084735402375</v>
       </c>
       <c r="C10">
-        <v>23.01734350794188</v>
+        <v>23.73009952761309</v>
       </c>
       <c r="D10">
-        <v>7.212084804407359</v>
+        <v>7.561601525801779</v>
       </c>
       <c r="E10">
-        <v>12.1442991804399</v>
+        <v>12.29948942398812</v>
       </c>
       <c r="F10">
-        <v>32.80143471374789</v>
+        <v>31.18243046264141</v>
       </c>
       <c r="G10">
-        <v>42.02530420153077</v>
+        <v>39.86715240333029</v>
       </c>
       <c r="I10">
-        <v>4.014607835481764</v>
+        <v>3.869587222581308</v>
       </c>
       <c r="J10">
-        <v>12.04833576712743</v>
+        <v>11.56958028153907</v>
       </c>
       <c r="K10">
-        <v>16.02558639770972</v>
+        <v>14.79586968283438</v>
       </c>
       <c r="L10">
-        <v>7.018479380893596</v>
+        <v>12.51270046749447</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.920028257696467</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.983356663874766</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.23514755467437</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.46537944658093</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.30886929827659</v>
+        <v>27.23373332577122</v>
       </c>
       <c r="C11">
-        <v>23.90925880694913</v>
+        <v>24.51068733987407</v>
       </c>
       <c r="D11">
-        <v>7.415868690545315</v>
+        <v>7.839758943567878</v>
       </c>
       <c r="E11">
-        <v>12.48782612007212</v>
+        <v>12.67471858208955</v>
       </c>
       <c r="F11">
-        <v>33.60456157757471</v>
+        <v>31.63215399584096</v>
       </c>
       <c r="G11">
-        <v>43.18052274425159</v>
+        <v>41.79458615156745</v>
       </c>
       <c r="I11">
-        <v>4.197728908296184</v>
+        <v>4.020255682863652</v>
       </c>
       <c r="J11">
-        <v>12.207694870343</v>
+        <v>11.03515718516396</v>
       </c>
       <c r="K11">
-        <v>16.1150177484695</v>
+        <v>14.68092970515064</v>
       </c>
       <c r="L11">
-        <v>7.134260314617976</v>
+        <v>12.31592611403287</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.04099586180988</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.090279905706648</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.11718531096226</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.41079741505588</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.67487502598502</v>
+        <v>27.53591887844323</v>
       </c>
       <c r="C12">
-        <v>24.22499310535921</v>
+        <v>24.77043827551749</v>
       </c>
       <c r="D12">
-        <v>7.486837803382921</v>
+        <v>7.944150968200643</v>
       </c>
       <c r="E12">
-        <v>12.61450295844289</v>
+        <v>12.81567956740385</v>
       </c>
       <c r="F12">
-        <v>33.93375695676133</v>
+        <v>31.802726326417</v>
       </c>
       <c r="G12">
-        <v>43.66096461963608</v>
+        <v>42.64825467165203</v>
       </c>
       <c r="I12">
-        <v>4.265863022126412</v>
+        <v>4.074537908391068</v>
       </c>
       <c r="J12">
-        <v>12.27882820554566</v>
+        <v>10.78196566946322</v>
       </c>
       <c r="K12">
-        <v>16.17276076208471</v>
+        <v>14.64607161144456</v>
       </c>
       <c r="L12">
-        <v>7.179047520527106</v>
+        <v>12.24712239316848</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.09578289902833</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.131033512510299</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.07049017689259</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.39034091877058</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.59918360732516</v>
+        <v>27.47421619213836</v>
       </c>
       <c r="C13">
-        <v>24.15402357494409</v>
+        <v>24.71219109243554</v>
       </c>
       <c r="D13">
-        <v>7.470457818151925</v>
+        <v>7.920369316280975</v>
       </c>
       <c r="E13">
-        <v>12.58675093711963</v>
+        <v>12.78476558694437</v>
       </c>
       <c r="F13">
-        <v>33.86799736506615</v>
+        <v>31.77201677573778</v>
       </c>
       <c r="G13">
-        <v>43.56656694544702</v>
+        <v>42.46959981923604</v>
       </c>
       <c r="I13">
-        <v>4.250992834557552</v>
+        <v>4.062475834452779</v>
       </c>
       <c r="J13">
-        <v>12.26543261386958</v>
+        <v>10.84082512101617</v>
       </c>
       <c r="K13">
-        <v>16.16463495973034</v>
+        <v>14.65812758008214</v>
       </c>
       <c r="L13">
-        <v>7.169507055151516</v>
+        <v>12.26494419452168</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.08779757625275</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.122387826968686</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.08002850139591</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.39387009389425</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.34033087240115</v>
+        <v>27.26005676179354</v>
       </c>
       <c r="C14">
-        <v>23.93396688514838</v>
+        <v>24.53108877470649</v>
       </c>
       <c r="D14">
-        <v>7.421239329217864</v>
+        <v>7.847786970987709</v>
       </c>
       <c r="E14">
-        <v>12.49804750681722</v>
+        <v>12.68607622646533</v>
       </c>
       <c r="F14">
-        <v>33.63384185389005</v>
+        <v>31.64878860290389</v>
       </c>
       <c r="G14">
-        <v>43.22393359488365</v>
+        <v>41.86696094307261</v>
       </c>
       <c r="I14">
-        <v>4.203244672862997</v>
+        <v>4.024557104641771</v>
       </c>
       <c r="J14">
-        <v>12.21436651490896</v>
+        <v>11.01624960649841</v>
       </c>
       <c r="K14">
-        <v>16.12160115635288</v>
+        <v>14.68001252447717</v>
       </c>
       <c r="L14">
-        <v>7.137989418667262</v>
+        <v>12.31156026784254</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.04713553158822</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.09368898286868</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.11312517653333</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.40874369288289</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.17517583402899</v>
+        <v>27.12147540643596</v>
       </c>
       <c r="C15">
-        <v>23.8049020221051</v>
+        <v>24.42397510577258</v>
       </c>
       <c r="D15">
-        <v>7.39325682331053</v>
+        <v>7.806113442625691</v>
       </c>
       <c r="E15">
-        <v>12.44461997835304</v>
+        <v>12.62679497474606</v>
       </c>
       <c r="F15">
-        <v>33.48013696241485</v>
+        <v>31.56026203231508</v>
       </c>
       <c r="G15">
-        <v>42.99583121068927</v>
+        <v>41.4907326072998</v>
       </c>
       <c r="I15">
-        <v>4.174456886103328</v>
+        <v>4.002125364168863</v>
       </c>
       <c r="J15">
-        <v>12.17930837184255</v>
+        <v>11.11251591802187</v>
       </c>
       <c r="K15">
-        <v>16.08679909363812</v>
+        <v>14.6839165578545</v>
       </c>
       <c r="L15">
-        <v>7.118490154337002</v>
+        <v>12.33377541151455</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.01433782544332</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.075836581960298</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.13441552131476</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.41968494048198</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.24750024132581</v>
+        <v>26.3298321439004</v>
       </c>
       <c r="C16">
-        <v>23.01391220816903</v>
+        <v>23.73118515769468</v>
       </c>
       <c r="D16">
-        <v>7.217853344204572</v>
+        <v>7.56280963316423</v>
       </c>
       <c r="E16">
-        <v>12.13046188087793</v>
+        <v>12.28367605768204</v>
       </c>
       <c r="F16">
-        <v>32.66172626833047</v>
+        <v>31.06547386425749</v>
       </c>
       <c r="G16">
-        <v>41.7958307678232</v>
+        <v>39.60266866976309</v>
       </c>
       <c r="I16">
-        <v>4.006006074372859</v>
+        <v>3.866237742627374</v>
       </c>
       <c r="J16">
-        <v>12.00489749491272</v>
+        <v>11.56582950348528</v>
       </c>
       <c r="K16">
-        <v>15.946359095089</v>
+        <v>14.73401752745297</v>
       </c>
       <c r="L16">
-        <v>7.008944126877721</v>
+        <v>12.47863352844448</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.853498680476934</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.974371815554161</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.25079120214204</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.48026355829033</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.66385167701415</v>
+        <v>25.81604210192032</v>
       </c>
       <c r="C17">
-        <v>22.51884451264133</v>
+        <v>23.27088695580574</v>
       </c>
       <c r="D17">
-        <v>7.109400126660153</v>
+        <v>7.421794903045329</v>
       </c>
       <c r="E17">
-        <v>11.93634381041275</v>
+        <v>12.07574464684841</v>
       </c>
       <c r="F17">
-        <v>32.15826288136191</v>
+        <v>30.71835724604449</v>
       </c>
       <c r="G17">
-        <v>41.05491704162164</v>
+        <v>38.58569740828423</v>
       </c>
       <c r="I17">
-        <v>3.902185012762702</v>
+        <v>3.781187370000211</v>
       </c>
       <c r="J17">
-        <v>11.89955425467386</v>
+        <v>11.73596449316778</v>
       </c>
       <c r="K17">
-        <v>15.86365679328962</v>
+        <v>14.74517142662889</v>
       </c>
       <c r="L17">
-        <v>6.942364169633029</v>
+        <v>12.5533833551024</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.741503088812431</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.911622013086645</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.32273166954766</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.5228553925516</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.33769758866499</v>
+        <v>25.52458066627323</v>
       </c>
       <c r="C18">
-        <v>22.21301483895313</v>
+        <v>22.97582093093041</v>
       </c>
       <c r="D18">
-        <v>7.040773960931027</v>
+        <v>7.337884750819114</v>
       </c>
       <c r="E18">
-        <v>11.82148052281329</v>
+        <v>11.95445555464174</v>
       </c>
       <c r="F18">
-        <v>31.89519353751825</v>
+        <v>30.52897005507559</v>
       </c>
       <c r="G18">
-        <v>40.67480531869396</v>
+        <v>38.09908171921733</v>
       </c>
       <c r="I18">
-        <v>3.840443216532914</v>
+        <v>3.728628977916673</v>
       </c>
       <c r="J18">
-        <v>11.84973154518852</v>
+        <v>11.80366630751486</v>
       </c>
       <c r="K18">
-        <v>15.83975796989043</v>
+        <v>14.76538129076495</v>
       </c>
       <c r="L18">
-        <v>6.904917320648969</v>
+        <v>12.60546364685105</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.690049507154381</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.875962498776994</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.36200144373666</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.54602547804216</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.21484842050302</v>
+        <v>25.41296921058682</v>
       </c>
       <c r="C19">
-        <v>22.12224770876237</v>
+        <v>22.88688331391958</v>
       </c>
       <c r="D19">
-        <v>7.022067103330443</v>
+        <v>7.314474050243764</v>
       </c>
       <c r="E19">
-        <v>11.78459954233548</v>
+        <v>11.91559770538187</v>
       </c>
       <c r="F19">
-        <v>31.7852739736416</v>
+        <v>30.44208008719193</v>
       </c>
       <c r="G19">
-        <v>40.50907081457723</v>
+        <v>37.90738859776788</v>
       </c>
       <c r="I19">
-        <v>3.820849859472375</v>
+        <v>3.712936882633382</v>
       </c>
       <c r="J19">
-        <v>11.82513447821858</v>
+        <v>11.81255855001966</v>
       </c>
       <c r="K19">
-        <v>15.81458126757787</v>
+        <v>14.75510119434835</v>
       </c>
       <c r="L19">
-        <v>6.891804088436597</v>
+        <v>12.61123538394225</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.658422250482641</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.863401319121687</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.37711954904233</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.55658942004369</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.72769638148455</v>
+        <v>25.87293367466383</v>
       </c>
       <c r="C20">
-        <v>22.57057209729606</v>
+        <v>23.31990945823439</v>
       </c>
       <c r="D20">
-        <v>7.120514145291533</v>
+        <v>7.436040867477513</v>
       </c>
       <c r="E20">
-        <v>11.95684848033488</v>
+        <v>12.09757447826474</v>
       </c>
       <c r="F20">
-        <v>32.21400565022385</v>
+        <v>30.75897751527615</v>
       </c>
       <c r="G20">
-        <v>41.13767394680995</v>
+        <v>38.69220243106298</v>
       </c>
       <c r="I20">
-        <v>3.913110052741645</v>
+        <v>3.790070190342401</v>
       </c>
       <c r="J20">
-        <v>11.91149932283173</v>
+        <v>11.72269250958316</v>
       </c>
       <c r="K20">
-        <v>15.87408758522773</v>
+        <v>14.74632536477817</v>
       </c>
       <c r="L20">
-        <v>6.949475932183876</v>
+        <v>12.54706800801773</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.755271009206073</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.918366214597424</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.31486751555311</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.5178786381511</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.40094501567236</v>
+        <v>27.28333761042297</v>
       </c>
       <c r="C21">
-        <v>24.01684865494676</v>
+        <v>24.55887297402563</v>
       </c>
       <c r="D21">
-        <v>7.442002885062658</v>
+        <v>7.891283952041933</v>
       </c>
       <c r="E21">
-        <v>12.52697820181735</v>
+        <v>12.72510980290992</v>
       </c>
       <c r="F21">
-        <v>33.67396066467563</v>
+        <v>31.5852676958567</v>
       </c>
       <c r="G21">
-        <v>43.27426463348711</v>
+        <v>42.24557719623201</v>
       </c>
       <c r="I21">
-        <v>4.218692997660686</v>
+        <v>4.036052362229121</v>
       </c>
       <c r="J21">
-        <v>12.21830505584672</v>
+        <v>10.77484730607148</v>
       </c>
       <c r="K21">
-        <v>16.10951909920153</v>
+        <v>14.61482533362587</v>
       </c>
       <c r="L21">
-        <v>7.146562229345108</v>
+        <v>12.25897088835935</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.00879460972108</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.099760762223814</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.10620811609586</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.41494291613902</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.46722374272974</v>
+        <v>28.17443236129889</v>
       </c>
       <c r="C22">
-        <v>24.90746342721872</v>
+        <v>25.30508613784179</v>
       </c>
       <c r="D22">
-        <v>7.641213332367072</v>
+        <v>8.181319412282779</v>
       </c>
       <c r="E22">
-        <v>12.89122645394618</v>
+        <v>13.12779908386925</v>
       </c>
       <c r="F22">
-        <v>34.65952056650752</v>
+        <v>32.1362657614911</v>
       </c>
       <c r="G22">
-        <v>44.71858932793047</v>
+        <v>44.6733602637987</v>
       </c>
       <c r="I22">
-        <v>4.41508137754303</v>
+        <v>4.19217739148621</v>
       </c>
       <c r="J22">
-        <v>12.43826888807739</v>
+        <v>10.1225233520328</v>
       </c>
       <c r="K22">
-        <v>16.30637821618656</v>
+        <v>14.55063931429018</v>
       </c>
       <c r="L22">
-        <v>7.278230817339796</v>
+        <v>12.08336517904135</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.20303355288569</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.220108643859464</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>10.9680174427489</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.35175675671622</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.9210711490765</v>
+        <v>27.73843990219928</v>
       </c>
       <c r="C23">
-        <v>24.41340185821099</v>
+        <v>24.9190813736035</v>
       </c>
       <c r="D23">
-        <v>7.527645865561825</v>
+        <v>8.008078467353917</v>
       </c>
       <c r="E23">
-        <v>12.69386106633574</v>
+        <v>12.90492864764303</v>
       </c>
       <c r="F23">
-        <v>34.16830675210984</v>
+        <v>31.92741416248188</v>
       </c>
       <c r="G23">
-        <v>44.00942017291649</v>
+        <v>43.25929334202638</v>
       </c>
       <c r="I23">
-        <v>4.309014314262409</v>
+        <v>4.107737305942181</v>
       </c>
       <c r="J23">
-        <v>12.33361125775334</v>
+        <v>10.60969360597588</v>
       </c>
       <c r="K23">
-        <v>16.22987336563201</v>
+        <v>14.63789302443477</v>
       </c>
       <c r="L23">
-        <v>7.208587804557022</v>
+        <v>12.21203708151731</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.14384833538264</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.157763021457167</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.03819046440541</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.37497575312974</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.73008804581834</v>
+        <v>25.87751049483724</v>
       </c>
       <c r="C24">
-        <v>22.51078471353244</v>
+        <v>23.26186707477731</v>
       </c>
       <c r="D24">
-        <v>7.103023361417904</v>
+        <v>7.417389115638564</v>
       </c>
       <c r="E24">
-        <v>11.94188874223181</v>
+        <v>12.08214977131139</v>
       </c>
       <c r="F24">
-        <v>32.24541494181174</v>
+        <v>30.79535835030387</v>
       </c>
       <c r="G24">
-        <v>41.20030327740088</v>
+        <v>38.74135635377096</v>
       </c>
       <c r="I24">
-        <v>3.905129970865661</v>
+        <v>3.780765049202255</v>
       </c>
       <c r="J24">
-        <v>11.92750631675681</v>
+        <v>11.74859061084342</v>
       </c>
       <c r="K24">
-        <v>15.91674308710405</v>
+        <v>14.78952180123024</v>
       </c>
       <c r="L24">
-        <v>6.947559142178686</v>
+        <v>12.57981442140934</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.786012791497047</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.916578781745046</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.31347495520055</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.51337778085615</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.16477157865823</v>
+        <v>23.47882248106644</v>
       </c>
       <c r="C25">
-        <v>20.31313461605171</v>
+        <v>20.97174787888068</v>
       </c>
       <c r="D25">
-        <v>6.632344637276595</v>
+        <v>6.892194384105496</v>
       </c>
       <c r="E25">
-        <v>11.11157676136332</v>
+        <v>11.2301543363945</v>
       </c>
       <c r="F25">
-        <v>30.16039949279706</v>
+        <v>28.98879650680856</v>
       </c>
       <c r="G25">
-        <v>38.11859531359178</v>
+        <v>35.82352187715299</v>
       </c>
       <c r="I25">
-        <v>3.459625104667995</v>
+        <v>3.400713449520448</v>
       </c>
       <c r="J25">
-        <v>11.51419223642182</v>
+        <v>11.51116009895273</v>
       </c>
       <c r="K25">
-        <v>15.62866071326668</v>
+        <v>14.69951850282547</v>
       </c>
       <c r="L25">
-        <v>6.675031564674421</v>
+        <v>12.78566057895801</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.239629637079871</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.650657256217597</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.61858591129839</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.72970051207476</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
